--- a/regionseng/8/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/8/employment and unemployment/employment and unemployment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -104,10 +104,6 @@
     <t>Labour Force Indicators*</t>
   </si>
   <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19 and 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
-  </si>
-  <si>
     <t>Labour force</t>
   </si>
   <si>
@@ -125,6 +121,10 @@
       <t>percentage</t>
     </r>
   </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,12 +223,6 @@
       <color indexed="8"/>
       <name val="Sylfaen"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -376,10 +370,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -405,15 +399,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -428,30 +419,30 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
@@ -463,23 +454,59 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -805,111 +832,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="4" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -918,825 +948,884 @@
       <c r="B5" s="3"/>
       <c r="P5" s="9"/>
       <c r="R5" s="8"/>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:23" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14">
         <v>2003</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2004</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>2005</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>2006</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>2007</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>2008</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>2009</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>2010</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>2011</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>2012</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>2013</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>2014</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>2015</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>2016</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>2017</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>2018</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <v>2019</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <v>2020</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="14">
         <v>2021</v>
       </c>
+      <c r="U6" s="14">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="14">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>341.89995398971155</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>343.18130478436859</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>345.36893832470935</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>347.12540912747505</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>335.56999999999562</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>335.39278708049233</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>338.16800000000126</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>336.3500000000065</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>334.79931189957108</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>334.04876982230326</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>332.50082128552913</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>334.05147018584194</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>333.62311284010497</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>333.36133583270811</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>326.76808296070215</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>328.4243038986948</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="15">
         <v>337.46053931608992</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="15">
         <v>343.39932469531612</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="15">
         <v>334.89767434373437</v>
       </c>
+      <c r="U7" s="37">
+        <v>330.88959702983368</v>
+      </c>
+      <c r="V7" s="48">
+        <v>336.46393343790129</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>223.36854814025708</v>
+      </c>
+      <c r="C8" s="17">
+        <v>216.30383955156924</v>
+      </c>
+      <c r="D8" s="17">
+        <v>225.62359226088938</v>
+      </c>
+      <c r="E8" s="17">
+        <v>221.87375373763527</v>
+      </c>
+      <c r="F8" s="17">
+        <v>217.46737785942619</v>
+      </c>
+      <c r="G8" s="17">
+        <v>209.46626254851509</v>
+      </c>
+      <c r="H8" s="17">
+        <v>216.82698588930782</v>
+      </c>
+      <c r="I8" s="17">
+        <v>167.06785265367768</v>
+      </c>
+      <c r="J8" s="16">
+        <v>171.63714012906451</v>
+      </c>
+      <c r="K8" s="18">
+        <v>176.5351534982521</v>
+      </c>
+      <c r="L8" s="18">
+        <v>173.01026377940346</v>
+      </c>
+      <c r="M8" s="18">
+        <v>188.65076864273024</v>
+      </c>
+      <c r="N8" s="18">
+        <v>202.32656689635749</v>
+      </c>
+      <c r="O8" s="18">
+        <v>192.68116515122892</v>
+      </c>
+      <c r="P8" s="18">
+        <v>203.82919480528332</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>198.53018213688108</v>
+      </c>
+      <c r="R8" s="17">
+        <v>196.73083321061586</v>
+      </c>
+      <c r="S8" s="17">
+        <v>172.16066768137944</v>
+      </c>
+      <c r="T8" s="17">
+        <v>165.52763114716058</v>
+      </c>
+      <c r="U8" s="38">
+        <v>172.27381170405766</v>
+      </c>
+      <c r="V8" s="49">
+        <v>172.40584216095903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17">
+        <v>206.11745575072584</v>
+      </c>
+      <c r="C9" s="17">
+        <v>196.5386921234653</v>
+      </c>
+      <c r="D9" s="17">
+        <v>200.67484535474983</v>
+      </c>
+      <c r="E9" s="17">
+        <v>199.43812137148035</v>
+      </c>
+      <c r="F9" s="17">
+        <v>189.55187854708893</v>
+      </c>
+      <c r="G9" s="17">
+        <v>183.63554458440601</v>
+      </c>
+      <c r="H9" s="17">
+        <v>189.77825862380593</v>
+      </c>
+      <c r="I9" s="17">
+        <v>143.39181378601955</v>
+      </c>
+      <c r="J9" s="19">
+        <v>145.32670421791872</v>
+      </c>
+      <c r="K9" s="18">
+        <v>146.18636110032224</v>
+      </c>
+      <c r="L9" s="18">
+        <v>151.21337569397826</v>
+      </c>
+      <c r="M9" s="18">
+        <v>159.79683043014688</v>
+      </c>
+      <c r="N9" s="18">
+        <v>169.73680110399766</v>
+      </c>
+      <c r="O9" s="18">
+        <v>164.6245897970735</v>
+      </c>
+      <c r="P9" s="18">
+        <v>163.55319090999373</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>157.82711677994982</v>
+      </c>
+      <c r="R9" s="17">
+        <v>158.53159665376171</v>
+      </c>
+      <c r="S9" s="17">
+        <v>133.95380519568337</v>
+      </c>
+      <c r="T9" s="17">
+        <v>123.89305052566564</v>
+      </c>
+      <c r="U9" s="38">
+        <v>132.83005805699261</v>
+      </c>
+      <c r="V9" s="49">
+        <v>135.01668403078921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17">
+        <v>57.681046692281832</v>
+      </c>
+      <c r="C10" s="17">
+        <v>47.464515012247617</v>
+      </c>
+      <c r="D10" s="17">
+        <v>53.616018730246516</v>
+      </c>
+      <c r="E10" s="17">
+        <v>59.430637176239337</v>
+      </c>
+      <c r="F10" s="17">
+        <v>65.956661827524073</v>
+      </c>
+      <c r="G10" s="17">
+        <v>62.691508654786411</v>
+      </c>
+      <c r="H10" s="17">
+        <v>64.347699727015595</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="17">
+        <v>77.911992357008998</v>
+      </c>
+      <c r="T10" s="17">
+        <v>76.42365491647378</v>
+      </c>
+      <c r="U10" s="38">
+        <v>85.113417481597978</v>
+      </c>
+      <c r="V10" s="49">
+        <v>86.356423347865615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="A11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="17">
+        <v>148.18340294378521</v>
+      </c>
+      <c r="C11" s="17">
+        <v>149.07417711122034</v>
+      </c>
+      <c r="D11" s="17">
+        <v>147.05882662450409</v>
+      </c>
+      <c r="E11" s="17">
+        <v>139.87529540412413</v>
+      </c>
+      <c r="F11" s="17">
+        <v>123.52767043833934</v>
+      </c>
+      <c r="G11" s="17">
+        <v>120.74896718485697</v>
+      </c>
+      <c r="H11" s="17">
+        <v>125.33656455283011</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="17">
+        <v>56.041812838674446</v>
+      </c>
+      <c r="T11" s="17">
+        <v>47.469395609191871</v>
+      </c>
+      <c r="U11" s="38">
+        <v>47.716640575393733</v>
+      </c>
+      <c r="V11" s="49">
+        <v>48.660260682923628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="A12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.25300611465928186</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.13218879111563525</v>
+      </c>
+      <c r="F12" s="17">
+        <v>6.7546281229488747E-2</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.19506874476729535</v>
+      </c>
+      <c r="H12" s="17">
+        <v>9.3994343959637794E-2</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <v>0</v>
+      </c>
+      <c r="V12" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17">
+        <v>17.251092389530374</v>
+      </c>
+      <c r="C13" s="17">
+        <v>19.765147428104797</v>
+      </c>
+      <c r="D13" s="17">
+        <v>24.948746906138226</v>
+      </c>
+      <c r="E13" s="17">
+        <v>22.435632366154554</v>
+      </c>
+      <c r="F13" s="17">
+        <v>27.915499312337982</v>
+      </c>
+      <c r="G13" s="17">
+        <v>25.830717964107816</v>
+      </c>
+      <c r="H13" s="17">
+        <v>27.048727265498673</v>
+      </c>
+      <c r="I13" s="17">
+        <v>23.676038867658136</v>
+      </c>
+      <c r="J13" s="19">
+        <v>26.310435911145792</v>
+      </c>
+      <c r="K13" s="18">
+        <v>30.348792397929845</v>
+      </c>
+      <c r="L13" s="18">
+        <v>21.796888085425195</v>
+      </c>
+      <c r="M13" s="18">
+        <v>28.853938212583355</v>
+      </c>
+      <c r="N13" s="18">
+        <v>32.58976579235982</v>
+      </c>
+      <c r="O13" s="18">
+        <v>28.056575354155441</v>
+      </c>
+      <c r="P13" s="18">
+        <v>40.276003895289591</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>40.703065356931262</v>
+      </c>
+      <c r="R13" s="17">
+        <v>38.19923655685416</v>
+      </c>
+      <c r="S13" s="17">
+        <v>38.206862485696682</v>
+      </c>
+      <c r="T13" s="17">
+        <v>41.634580621494891</v>
+      </c>
+      <c r="U13" s="38">
+        <v>39.443753647064511</v>
+      </c>
+      <c r="V13" s="49">
+        <v>37.389158130169641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="17">
+        <v>118.53140584944903</v>
+      </c>
+      <c r="C14" s="17">
+        <v>126.87746523280116</v>
+      </c>
+      <c r="D14" s="17">
+        <v>119.74534606380853</v>
+      </c>
+      <c r="E14" s="17">
+        <v>125.25165538984257</v>
+      </c>
+      <c r="F14" s="17">
+        <v>118.1026221405687</v>
+      </c>
+      <c r="G14" s="17">
+        <v>125.92652453196733</v>
+      </c>
+      <c r="H14" s="17">
+        <v>121.34101411069094</v>
+      </c>
+      <c r="I14" s="17">
+        <v>169.28214734632883</v>
+      </c>
+      <c r="J14" s="19">
+        <v>163.16217177050657</v>
+      </c>
+      <c r="K14" s="18">
+        <v>157.51361632405116</v>
+      </c>
+      <c r="L14" s="18">
+        <v>159.49055750612567</v>
+      </c>
+      <c r="M14" s="18">
+        <v>145.40070154311169</v>
+      </c>
+      <c r="N14" s="18">
+        <v>131.29654594374747</v>
+      </c>
+      <c r="O14" s="18">
+        <v>140.68017068147918</v>
+      </c>
+      <c r="P14" s="18">
+        <v>122.93888815541882</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>129.89412176181372</v>
+      </c>
+      <c r="R14" s="17">
+        <v>140.72970610547407</v>
+      </c>
+      <c r="S14" s="17">
+        <v>171.23865701393871</v>
+      </c>
+      <c r="T14" s="17">
+        <v>169.37004319657376</v>
+      </c>
+      <c r="U14" s="38">
+        <v>158.6157853257811</v>
+      </c>
+      <c r="V14" s="49">
+        <v>164.05809127694252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20">
+        <v>7.7231519536484186</v>
+      </c>
+      <c r="C15" s="20">
+        <v>9.1376775692382317</v>
+      </c>
+      <c r="D15" s="20">
+        <v>11.057685349362711</v>
+      </c>
+      <c r="E15" s="20">
+        <v>10.111891103931377</v>
+      </c>
+      <c r="F15" s="20">
+        <v>12.836637654399333</v>
+      </c>
+      <c r="G15" s="20">
+        <v>12.331684181420426</v>
+      </c>
+      <c r="H15" s="20">
+        <v>12.474797431029778</v>
+      </c>
+      <c r="I15" s="20">
+        <v>14.171510851185262</v>
+      </c>
+      <c r="J15" s="21">
+        <v>15.329104115438744</v>
+      </c>
+      <c r="K15" s="22">
+        <v>17.191359225929091</v>
+      </c>
+      <c r="L15" s="22">
+        <v>12.598609821910504</v>
+      </c>
+      <c r="M15" s="22">
+        <v>15.294895653050526</v>
+      </c>
+      <c r="N15" s="22">
+        <v>16.107506934101266</v>
+      </c>
+      <c r="O15" s="22">
+        <v>14.561140593132071</v>
+      </c>
+      <c r="P15" s="22">
+        <v>19.759683559445442</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>20.502205215762924</v>
+      </c>
+      <c r="R15" s="20">
+        <v>19.417005424848107</v>
+      </c>
+      <c r="S15" s="20">
+        <v>22.192561750751775</v>
+      </c>
+      <c r="T15" s="20">
+        <v>25.152646922422338</v>
+      </c>
+      <c r="U15" s="39">
+        <v>22.89596616972948</v>
+      </c>
+      <c r="V15" s="50">
+        <v>21.686711808328933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1">
+      <c r="A16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18">
-        <v>223.36854814025708</v>
-      </c>
-      <c r="C8" s="18">
-        <v>216.30383955156924</v>
-      </c>
-      <c r="D8" s="18">
-        <v>225.62359226088938</v>
-      </c>
-      <c r="E8" s="18">
-        <v>221.87375373763527</v>
-      </c>
-      <c r="F8" s="18">
-        <v>217.46737785942619</v>
-      </c>
-      <c r="G8" s="18">
-        <v>209.46626254851509</v>
-      </c>
-      <c r="H8" s="18">
-        <v>216.82698588930782</v>
-      </c>
-      <c r="I8" s="18">
-        <v>167.06785265367768</v>
-      </c>
-      <c r="J8" s="17">
-        <v>171.63714012906451</v>
-      </c>
-      <c r="K8" s="19">
-        <v>176.5351534982521</v>
-      </c>
-      <c r="L8" s="19">
-        <v>173.01026377940346</v>
-      </c>
-      <c r="M8" s="19">
-        <v>188.65076864273024</v>
-      </c>
-      <c r="N8" s="19">
-        <v>202.32656689635749</v>
-      </c>
-      <c r="O8" s="19">
-        <v>192.68116515122892</v>
-      </c>
-      <c r="P8" s="19">
-        <v>203.82919480528332</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>198.53018213688108</v>
-      </c>
-      <c r="R8" s="18">
-        <v>196.73083321061586</v>
-      </c>
-      <c r="S8" s="18">
-        <v>172.16066768137944</v>
-      </c>
-      <c r="T8" s="18">
-        <v>165.52763114716058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18">
-        <v>206.11745575072584</v>
-      </c>
-      <c r="C9" s="18">
-        <v>196.5386921234653</v>
-      </c>
-      <c r="D9" s="18">
-        <v>200.67484535474983</v>
-      </c>
-      <c r="E9" s="18">
-        <v>199.43812137148035</v>
-      </c>
-      <c r="F9" s="18">
-        <v>189.55187854708893</v>
-      </c>
-      <c r="G9" s="18">
-        <v>183.63554458440601</v>
-      </c>
-      <c r="H9" s="18">
-        <v>189.77825862380593</v>
-      </c>
-      <c r="I9" s="18">
-        <v>143.39181378601955</v>
-      </c>
-      <c r="J9" s="20">
-        <v>145.32670421791872</v>
-      </c>
-      <c r="K9" s="19">
-        <v>146.18636110032224</v>
-      </c>
-      <c r="L9" s="19">
-        <v>151.21337569397826</v>
-      </c>
-      <c r="M9" s="19">
-        <v>159.79683043014688</v>
-      </c>
-      <c r="N9" s="19">
-        <v>169.73680110399766</v>
-      </c>
-      <c r="O9" s="19">
-        <v>164.6245897970735</v>
-      </c>
-      <c r="P9" s="19">
-        <v>163.55319090999373</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>157.82711677994982</v>
-      </c>
-      <c r="R9" s="18">
-        <v>158.53159665376171</v>
-      </c>
-      <c r="S9" s="18">
-        <v>133.95380519568337</v>
-      </c>
-      <c r="T9" s="18">
-        <v>123.89305052566564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18">
-        <v>57.681046692281832</v>
-      </c>
-      <c r="C10" s="18">
-        <v>47.464515012247617</v>
-      </c>
-      <c r="D10" s="18">
-        <v>53.616018730246516</v>
-      </c>
-      <c r="E10" s="18">
-        <v>59.430637176239337</v>
-      </c>
-      <c r="F10" s="18">
-        <v>65.956661827524073</v>
-      </c>
-      <c r="G10" s="18">
-        <v>62.691508654786411</v>
-      </c>
-      <c r="H10" s="18">
-        <v>64.347699727015595</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="18">
-        <v>77.911992357008998</v>
-      </c>
-      <c r="T10" s="18">
-        <v>76.42365491647378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18">
-        <v>148.18340294378521</v>
-      </c>
-      <c r="C11" s="18">
-        <v>149.07417711122034</v>
-      </c>
-      <c r="D11" s="18">
-        <v>147.05882662450409</v>
-      </c>
-      <c r="E11" s="18">
-        <v>139.87529540412413</v>
-      </c>
-      <c r="F11" s="18">
-        <v>123.52767043833934</v>
-      </c>
-      <c r="G11" s="18">
-        <v>120.74896718485697</v>
-      </c>
-      <c r="H11" s="18">
-        <v>125.33656455283011</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="18">
-        <v>56.041812838674446</v>
-      </c>
-      <c r="T11" s="18">
-        <v>47.469395609191871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0.25300611465928186</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.13218879111563525</v>
-      </c>
-      <c r="F12" s="18">
-        <v>6.7546281229488747E-2</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.19506874476729535</v>
-      </c>
-      <c r="H12" s="18">
-        <v>9.3994343959637794E-2</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="18">
-        <v>0</v>
-      </c>
-      <c r="T12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="18">
-        <v>17.251092389530374</v>
-      </c>
-      <c r="C13" s="18">
-        <v>19.765147428104797</v>
-      </c>
-      <c r="D13" s="18">
-        <v>24.948746906138226</v>
-      </c>
-      <c r="E13" s="18">
-        <v>22.435632366154554</v>
-      </c>
-      <c r="F13" s="18">
-        <v>27.915499312337982</v>
-      </c>
-      <c r="G13" s="18">
-        <v>25.830717964107816</v>
-      </c>
-      <c r="H13" s="18">
-        <v>27.048727265498673</v>
-      </c>
-      <c r="I13" s="18">
-        <v>23.676038867658136</v>
-      </c>
-      <c r="J13" s="20">
-        <v>26.310435911145792</v>
-      </c>
-      <c r="K13" s="19">
-        <v>30.348792397929845</v>
-      </c>
-      <c r="L13" s="19">
-        <v>21.796888085425195</v>
-      </c>
-      <c r="M13" s="19">
-        <v>28.853938212583355</v>
-      </c>
-      <c r="N13" s="19">
-        <v>32.58976579235982</v>
-      </c>
-      <c r="O13" s="19">
-        <v>28.056575354155441</v>
-      </c>
-      <c r="P13" s="19">
-        <v>40.276003895289591</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>40.703065356931262</v>
-      </c>
-      <c r="R13" s="18">
-        <v>38.19923655685416</v>
-      </c>
-      <c r="S13" s="18">
-        <v>38.206862485696682</v>
-      </c>
-      <c r="T13" s="18">
-        <v>41.634580621494891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="18">
-        <v>118.53140584944903</v>
-      </c>
-      <c r="C14" s="18">
-        <v>126.87746523280116</v>
-      </c>
-      <c r="D14" s="18">
-        <v>119.74534606380853</v>
-      </c>
-      <c r="E14" s="18">
-        <v>125.25165538984257</v>
-      </c>
-      <c r="F14" s="18">
-        <v>118.1026221405687</v>
-      </c>
-      <c r="G14" s="18">
-        <v>125.92652453196733</v>
-      </c>
-      <c r="H14" s="18">
-        <v>121.34101411069094</v>
-      </c>
-      <c r="I14" s="18">
-        <v>169.28214734632883</v>
-      </c>
-      <c r="J14" s="20">
-        <v>163.16217177050657</v>
-      </c>
-      <c r="K14" s="19">
-        <v>157.51361632405116</v>
-      </c>
-      <c r="L14" s="19">
-        <v>159.49055750612567</v>
-      </c>
-      <c r="M14" s="19">
-        <v>145.40070154311169</v>
-      </c>
-      <c r="N14" s="19">
-        <v>131.29654594374747</v>
-      </c>
-      <c r="O14" s="19">
-        <v>140.68017068147918</v>
-      </c>
-      <c r="P14" s="19">
-        <v>122.93888815541882</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>129.89412176181372</v>
-      </c>
-      <c r="R14" s="18">
-        <v>140.72970610547407</v>
-      </c>
-      <c r="S14" s="18">
-        <v>171.23865701393871</v>
-      </c>
-      <c r="T14" s="18">
-        <v>169.37004319657376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21">
-        <v>7.7231519536484186</v>
-      </c>
-      <c r="C15" s="21">
-        <v>9.1376775692382317</v>
-      </c>
-      <c r="D15" s="21">
-        <v>11.057685349362711</v>
-      </c>
-      <c r="E15" s="21">
-        <v>10.111891103931377</v>
-      </c>
-      <c r="F15" s="21">
-        <v>12.836637654399333</v>
-      </c>
-      <c r="G15" s="21">
-        <v>12.331684181420426</v>
-      </c>
-      <c r="H15" s="21">
-        <v>12.474797431029778</v>
-      </c>
-      <c r="I15" s="21">
-        <v>14.171510851185262</v>
-      </c>
-      <c r="J15" s="22">
-        <v>15.329104115438744</v>
-      </c>
-      <c r="K15" s="23">
-        <v>17.191359225929091</v>
-      </c>
-      <c r="L15" s="23">
-        <v>12.598609821910504</v>
-      </c>
-      <c r="M15" s="23">
-        <v>15.294895653050526</v>
-      </c>
-      <c r="N15" s="23">
-        <v>16.107506934101266</v>
-      </c>
-      <c r="O15" s="23">
-        <v>14.561140593132071</v>
-      </c>
-      <c r="P15" s="23">
-        <v>19.759683559445442</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>20.502205215762924</v>
-      </c>
-      <c r="R15" s="21">
-        <v>19.417005424848107</v>
-      </c>
-      <c r="S15" s="21">
-        <v>22.192561750751775</v>
-      </c>
-      <c r="T15" s="21">
-        <v>25.152646922422338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1">
-      <c r="A16" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>65.331552559079512</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>63.029027670222192</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>65.328281505374505</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>63.917462652858248</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>64.805369329626913</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>62.454015297068509</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>64.118126460607456</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>49.670834741690037</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>51.265678879456622</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>52.847119776001485</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>52.033033515677843</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <v>56.47356335171304</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>60.645248818035647</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="22">
         <v>57.79949395448871</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="22">
         <v>62.37732674454508</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="22">
         <v>60.449296772543171</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <v>58.29743341527216</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <v>50.134247594729665</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="20">
         <v>49.4263304370592</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="37" t="s">
+      <c r="U16" s="39">
+        <v>52.063834357574294</v>
+      </c>
+      <c r="V16" s="50">
+        <v>51.240511991689807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>60.285897481263873</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>57.269638346691586</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>58.104485692363895</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>57.454198433005111</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>56.486538888187688</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>54.752383372017647</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>56.119520068074216</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>42.631727006397142</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <v>43.407109588538226</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>43.761981574752049</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>45.477594644533674</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <v>47.835990765509145</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="26">
         <v>50.876811159467586</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="26">
         <v>49.383228377656742</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="26">
         <v>50.051764366981637</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="26">
         <v>48.055857896750815</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="23">
         <v>46.977817606481558</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="23">
         <v>39.008173738994678</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="23">
         <v>36.994300055515922</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="40">
+        <v>40.143316456399923</v>
+      </c>
+      <c r="V17" s="51">
+        <v>40.128129826939762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="40" t="s">
+    <row r="19" spans="1:24" s="43" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24" ht="30" customHeight="1">
+      <c r="A20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
